--- a/HLR.xlsx
+++ b/HLR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Function id</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>while clicking on that menu its open its own website not to open its page</t>
+  </si>
+  <si>
+    <t>check twitter logo</t>
+  </si>
+  <si>
+    <t>while clicking on that logo open twitter page.</t>
+  </si>
+  <si>
+    <t>check fb logo</t>
+  </si>
+  <si>
+    <t>while clicking on that logo open acebook page.</t>
+  </si>
+  <si>
+    <t>check linkdin logo</t>
+  </si>
+  <si>
+    <t>while clicking on that logo open linkdin page page.</t>
   </si>
 </sst>
 </file>
@@ -221,11 +239,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,10 +561,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -545,10 +572,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -556,10 +583,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -567,10 +594,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -578,10 +605,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>200</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -589,10 +616,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>300</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -600,21 +627,21 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>400</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>500</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -622,10 +649,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>501</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -633,10 +660,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>502</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -644,10 +671,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>503</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -655,10 +682,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>504</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -666,10 +693,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>505</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -677,10 +704,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>506</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -688,10 +715,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>507</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -699,10 +726,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>600</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -710,10 +737,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>601</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -721,10 +748,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>602</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -732,10 +759,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>603</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -743,10 +770,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>604</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -754,15 +781,57 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>700</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>800</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>900</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
